--- a/src/main/resources/assets/_test/docs/xlsx/_IF011.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/_IF011.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="109">
   <si>
     <t>시스템명</t>
   </si>
@@ -54,283 +54,304 @@
     <t>수신서비스ID</t>
   </si>
   <si>
+    <t>수신서비스명</t>
+  </si>
+  <si>
+    <t>결과 수신서비스</t>
+  </si>
+  <si>
+    <t>타임아웃 처리서비스</t>
+  </si>
+  <si>
+    <t>시스템구분</t>
+  </si>
+  <si>
+    <t>대내</t>
+  </si>
+  <si>
+    <t>1. 요청전문</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>시스템</t>
+  </si>
+  <si>
+    <t>MCC(화상상담)</t>
+  </si>
+  <si>
+    <t>ICS(코어-통합고객지원)</t>
+  </si>
+  <si>
+    <t>담당자(연락처)</t>
+  </si>
+  <si>
+    <t>데이터포맷</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>인터페이스방식</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>필드명</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>필드속성</t>
+  </si>
+  <si>
+    <t>필드길이</t>
+  </si>
+  <si>
+    <t>소수점이하</t>
+  </si>
+  <si>
+    <t>반복여부</t>
+  </si>
+  <si>
+    <t>반복횟수</t>
+  </si>
+  <si>
+    <t>한글명</t>
+  </si>
+  <si>
+    <t>영문명</t>
+  </si>
+  <si>
+    <t>데이터헤더</t>
+  </si>
+  <si>
+    <t>dataHeader</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>GROUP_GROUP</t>
+  </si>
+  <si>
+    <t>서비스ID</t>
+  </si>
+  <si>
+    <t>SRVC_ID</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>화면ID</t>
+  </si>
+  <si>
+    <t>SCRN_ID</t>
+  </si>
+  <si>
+    <t>처리코드</t>
+  </si>
+  <si>
+    <t>CRTF_RTCD</t>
+  </si>
+  <si>
+    <t>처리결과메세지</t>
+  </si>
+  <si>
+    <t>DLRE_MSG</t>
+  </si>
+  <si>
+    <t>기관코드</t>
+  </si>
+  <si>
+    <t>ORGN_CODE</t>
+  </si>
+  <si>
+    <t>사용자ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>데이터바디</t>
+  </si>
+  <si>
+    <t>dataBody</t>
+  </si>
+  <si>
+    <t>이니텍인증토큰</t>
+  </si>
+  <si>
+    <t>initechOAuthToken</t>
+  </si>
+  <si>
+    <t>인증서비스ID</t>
+  </si>
+  <si>
+    <t>pid</t>
+  </si>
+  <si>
+    <t>사용자이름</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>사용자생년월일</t>
+  </si>
+  <si>
+    <t>ubirthday</t>
+  </si>
+  <si>
+    <t>사용자성별</t>
+  </si>
+  <si>
+    <t>ugender</t>
+  </si>
+  <si>
+    <t>사용자휴대폰번호</t>
+  </si>
+  <si>
+    <t>uphone</t>
+  </si>
+  <si>
+    <t>인증전자서명구분값</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>전자서명</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>전자서명원문</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>요청환경코드</t>
+  </si>
+  <si>
+    <t>deviceCode</t>
+  </si>
+  <si>
+    <t>요청브라우저타입</t>
+  </si>
+  <si>
+    <t>deviceBrowser</t>
+  </si>
+  <si>
+    <t>콜백</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>성공콜백URL</t>
+  </si>
+  <si>
+    <t>successCallbackUrl</t>
+  </si>
+  <si>
+    <t>실패콜백URL</t>
+  </si>
+  <si>
+    <t>failCallbackUrl</t>
+  </si>
+  <si>
+    <t>통신사구분코드</t>
+  </si>
+  <si>
+    <t>telcoTycd</t>
+  </si>
+  <si>
+    <t>모바일OS</t>
+  </si>
+  <si>
+    <t>mobileOs</t>
+  </si>
+  <si>
+    <t>채널코드</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>2. 응답전문</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>응답코드</t>
+  </si>
+  <si>
+    <t>resCode</t>
+  </si>
+  <si>
+    <t>오류메시지</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>트랜잭션ID</t>
+  </si>
+  <si>
+    <t>reqTxId</t>
+  </si>
+  <si>
+    <t>iOS앱스킴</t>
+  </si>
+  <si>
+    <t>iosAppSchemeUrl</t>
+  </si>
+  <si>
+    <t>AOS앱스킴</t>
+  </si>
+  <si>
+    <t>aosAppSchemeUrl</t>
+  </si>
+  <si>
+    <t>간편인증 요청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>hcsInitechRequest</t>
-  </si>
-  <si>
-    <t>수신서비스명</t>
-  </si>
-  <si>
-    <t>결과 수신서비스</t>
-  </si>
-  <si>
-    <t>타임아웃 처리서비스</t>
-  </si>
-  <si>
-    <t>시스템구분</t>
-  </si>
-  <si>
-    <t>대내</t>
-  </si>
-  <si>
-    <t>1. 요청전문</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>시스템</t>
-  </si>
-  <si>
-    <t>MCC(화상상담)</t>
-  </si>
-  <si>
-    <t>ICS(코어-통합고객지원)</t>
-  </si>
-  <si>
-    <t>담당자(연락처)</t>
-  </si>
-  <si>
-    <t>데이터포맷</t>
-  </si>
-  <si>
-    <t>Json</t>
-  </si>
-  <si>
-    <t>인터페이스방식</t>
-  </si>
-  <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>필드명</t>
-  </si>
-  <si>
-    <t>I/O</t>
-  </si>
-  <si>
-    <t>필드속성</t>
-  </si>
-  <si>
-    <t>필드길이</t>
-  </si>
-  <si>
-    <t>소수점이하</t>
-  </si>
-  <si>
-    <t>반복여부</t>
-  </si>
-  <si>
-    <t>반복횟수</t>
-  </si>
-  <si>
-    <t>한글명</t>
-  </si>
-  <si>
-    <t>영문명</t>
-  </si>
-  <si>
-    <t>데이터헤더</t>
-  </si>
-  <si>
-    <t>dataHeader</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>GROUP_GROUP</t>
-  </si>
-  <si>
-    <t>서비스ID</t>
-  </si>
-  <si>
-    <t>SRVC_ID</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>화면ID</t>
-  </si>
-  <si>
-    <t>SCRN_ID</t>
-  </si>
-  <si>
-    <t>처리코드</t>
-  </si>
-  <si>
-    <t>CRTF_RTCD</t>
-  </si>
-  <si>
-    <t>처리결과메세지</t>
-  </si>
-  <si>
-    <t>DLRE_MSG</t>
-  </si>
-  <si>
-    <t>기관코드</t>
-  </si>
-  <si>
-    <t>ORGN_CODE</t>
-  </si>
-  <si>
-    <t>사용자ID</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>데이터바디</t>
-  </si>
-  <si>
-    <t>dataBody</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>initechOAuthToken</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>이니텍인증토큰</t>
-  </si>
-  <si>
-    <t>initechOAuthToken</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>인증서비스ID</t>
-  </si>
-  <si>
-    <t>pid</t>
-  </si>
-  <si>
-    <t>사용자이름</t>
-  </si>
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>사용자생년월일</t>
-  </si>
-  <si>
-    <t>ubirthday</t>
-  </si>
-  <si>
-    <t>사용자성별</t>
-  </si>
-  <si>
-    <t>ugender</t>
-  </si>
-  <si>
-    <t>사용자휴대폰번호</t>
-  </si>
-  <si>
-    <t>uphone</t>
-  </si>
-  <si>
-    <t>인증전자서명구분값</t>
-  </si>
-  <si>
-    <t>op</t>
-  </si>
-  <si>
-    <t>전자서명</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>전자서명원문</t>
-  </si>
-  <si>
-    <t>contents</t>
-  </si>
-  <si>
-    <t>요청환경코드</t>
-  </si>
-  <si>
-    <t>deviceCode</t>
-  </si>
-  <si>
-    <t>요청브라우저타입</t>
-  </si>
-  <si>
-    <t>deviceBrowser</t>
-  </si>
-  <si>
-    <t>콜백</t>
-  </si>
-  <si>
-    <t>callback</t>
-  </si>
-  <si>
-    <t>성공콜백URL</t>
-  </si>
-  <si>
-    <t>successCallbackUrl</t>
-  </si>
-  <si>
-    <t>실패콜백URL</t>
-  </si>
-  <si>
-    <t>failCallbackUrl</t>
-  </si>
-  <si>
-    <t>통신사구분코드</t>
-  </si>
-  <si>
-    <t>telcoTycd</t>
-  </si>
-  <si>
-    <t>모바일OS</t>
-  </si>
-  <si>
-    <t>mobileOs</t>
-  </si>
-  <si>
-    <t>채널코드</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>2. 응답전문</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>응답코드</t>
-  </si>
-  <si>
-    <t>resCode</t>
-  </si>
-  <si>
-    <t>오류메시지</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>트랜잭션ID</t>
-  </si>
-  <si>
-    <t>reqTxId</t>
-  </si>
-  <si>
-    <t>iOS앱스킴</t>
-  </si>
-  <si>
-    <t>iosAppSchemeUrl</t>
-  </si>
-  <si>
-    <t>AOS앱스킴</t>
-  </si>
-  <si>
-    <t>aosAppSchemeUrl</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +697,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -923,8 +956,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1310,177 +1352,177 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
         <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
+      <c r="S9" t="s">
         <v>19</v>
-      </c>
-      <c r="S9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
       <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
       <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>32</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>35</v>
-      </c>
-      <c r="R14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
       <c r="F16">
         <v>-1</v>
@@ -1489,36 +1531,36 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
         <v>39</v>
       </c>
-      <c r="L16" t="s">
-        <v>40</v>
-      </c>
       <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
         <v>41</v>
-      </c>
-      <c r="N16" t="s">
-        <v>42</v>
       </c>
       <c r="O16">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1527,36 +1569,36 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
         <v>43</v>
       </c>
-      <c r="L17" t="s">
-        <v>44</v>
-      </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O17">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1565,36 +1607,36 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
         <v>46</v>
       </c>
-      <c r="L18" t="s">
-        <v>47</v>
-      </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O18">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1603,36 +1645,36 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" t="s">
         <v>48</v>
       </c>
-      <c r="L19" t="s">
-        <v>49</v>
-      </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -1641,36 +1683,36 @@
         <v>5</v>
       </c>
       <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
         <v>50</v>
       </c>
-      <c r="L20" t="s">
-        <v>51</v>
-      </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O20">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -1679,36 +1721,36 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" t="s">
         <v>52</v>
       </c>
-      <c r="L21" t="s">
-        <v>53</v>
-      </c>
       <c r="M21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -1717,36 +1759,36 @@
         <v>7</v>
       </c>
       <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="s">
         <v>54</v>
       </c>
-      <c r="L22" t="s">
-        <v>55</v>
-      </c>
       <c r="M22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O22">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
         <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>42</v>
       </c>
       <c r="F23">
         <v>-1</v>
@@ -1755,16 +1797,16 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
         <v>56</v>
       </c>
-      <c r="L23" t="s">
-        <v>57</v>
-      </c>
       <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" t="s">
         <v>41</v>
-      </c>
-      <c r="N23" t="s">
-        <v>42</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -1775,16 +1817,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>20</v>
@@ -1793,16 +1835,16 @@
         <v>9</v>
       </c>
       <c r="K24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
         <v>58</v>
       </c>
-      <c r="L24" t="s">
-        <v>59</v>
-      </c>
       <c r="M24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O24">
         <v>20</v>
@@ -1813,16 +1855,16 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>20</v>
@@ -1831,16 +1873,16 @@
         <v>10</v>
       </c>
       <c r="K25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" t="s">
         <v>60</v>
       </c>
-      <c r="L25" t="s">
-        <v>61</v>
-      </c>
       <c r="M25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O25">
         <v>20</v>
@@ -1851,16 +1893,16 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1869,16 +1911,16 @@
         <v>11</v>
       </c>
       <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" t="s">
         <v>62</v>
       </c>
-      <c r="L26" t="s">
-        <v>63</v>
-      </c>
       <c r="M26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O26">
         <v>30</v>
@@ -1889,16 +1931,16 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1907,16 +1949,16 @@
         <v>12</v>
       </c>
       <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" t="s">
-        <v>65</v>
-      </c>
       <c r="M27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O27">
         <v>30</v>
@@ -1927,16 +1969,16 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
-        <v>67</v>
-      </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1945,16 +1987,16 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" t="s">
         <v>66</v>
       </c>
-      <c r="L28" t="s">
-        <v>67</v>
-      </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -1965,16 +2007,16 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>30</v>
@@ -1983,36 +2025,36 @@
         <v>14</v>
       </c>
       <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
         <v>68</v>
       </c>
-      <c r="L29" t="s">
-        <v>69</v>
-      </c>
       <c r="M29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O29">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>15</v>
       </c>
       <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -2021,36 +2063,36 @@
         <v>15</v>
       </c>
       <c r="K30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" t="s">
         <v>70</v>
       </c>
-      <c r="L30" t="s">
-        <v>71</v>
-      </c>
       <c r="M30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O30">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>16</v>
       </c>
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
-        <v>73</v>
-      </c>
       <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
         <v>41</v>
-      </c>
-      <c r="E31" t="s">
-        <v>42</v>
       </c>
       <c r="F31">
         <v>-1</v>
@@ -2059,36 +2101,36 @@
         <v>16</v>
       </c>
       <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
         <v>72</v>
       </c>
-      <c r="L31" t="s">
-        <v>73</v>
-      </c>
       <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
         <v>41</v>
-      </c>
-      <c r="N31" t="s">
-        <v>42</v>
       </c>
       <c r="O31">
         <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>17</v>
       </c>
       <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32">
         <v>4000</v>
@@ -2097,16 +2139,16 @@
         <v>17</v>
       </c>
       <c r="K32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" t="s">
         <v>74</v>
       </c>
-      <c r="L32" t="s">
-        <v>75</v>
-      </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O32">
         <v>4000</v>
@@ -2117,16 +2159,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>20</v>
@@ -2135,16 +2177,16 @@
         <v>18</v>
       </c>
       <c r="K33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" t="s">
         <v>76</v>
       </c>
-      <c r="L33" t="s">
-        <v>77</v>
-      </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O33">
         <v>20</v>
@@ -2155,16 +2197,16 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -2173,36 +2215,36 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
         <v>78</v>
       </c>
-      <c r="L34" t="s">
-        <v>79</v>
-      </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O34">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>20</v>
       </c>
       <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
-        <v>81</v>
-      </c>
       <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
         <v>41</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
       </c>
       <c r="F35">
         <v>-1</v>
@@ -2211,36 +2253,36 @@
         <v>20</v>
       </c>
       <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s">
         <v>80</v>
       </c>
-      <c r="L35" t="s">
-        <v>81</v>
-      </c>
       <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
         <v>41</v>
-      </c>
-      <c r="N35" t="s">
-        <v>42</v>
       </c>
       <c r="O35">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>21</v>
       </c>
       <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36">
         <v>50</v>
@@ -2249,36 +2291,36 @@
         <v>21</v>
       </c>
       <c r="K36" t="s">
+        <v>81</v>
+      </c>
+      <c r="L36" t="s">
         <v>82</v>
       </c>
-      <c r="L36" t="s">
-        <v>83</v>
-      </c>
       <c r="M36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O36">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>22</v>
       </c>
       <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37">
         <v>50</v>
@@ -2287,36 +2329,36 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" t="s">
         <v>84</v>
       </c>
-      <c r="L37" t="s">
-        <v>85</v>
-      </c>
       <c r="M37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O37">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>23</v>
       </c>
       <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38">
         <v>10</v>
@@ -2325,36 +2367,36 @@
         <v>23</v>
       </c>
       <c r="K38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" t="s">
         <v>86</v>
       </c>
-      <c r="L38" t="s">
-        <v>87</v>
-      </c>
       <c r="M38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O38">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>24</v>
       </c>
       <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -2363,33 +2405,33 @@
         <v>24</v>
       </c>
       <c r="K39" t="s">
+        <v>87</v>
+      </c>
+      <c r="L39" t="s">
         <v>88</v>
       </c>
-      <c r="L39" t="s">
-        <v>89</v>
-      </c>
       <c r="M39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O39">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>25</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -2398,16 +2440,16 @@
         <v>25</v>
       </c>
       <c r="K40" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" t="s">
         <v>90</v>
       </c>
-      <c r="L40" t="s">
-        <v>91</v>
-      </c>
       <c r="M40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O40">
         <v>10</v>
@@ -2415,74 +2457,74 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>30</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>31</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>32</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>33</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>34</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>35</v>
       </c>
-      <c r="I45" t="s">
-        <v>36</v>
-      </c>
       <c r="J45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" t="s">
         <v>29</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M45" t="s">
         <v>30</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>31</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>32</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>33</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>34</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>35</v>
       </c>
-      <c r="R45" t="s">
-        <v>36</v>
-      </c>
       <c r="S45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
         <v>37</v>
       </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
       <c r="K46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
         <v>37</v>
-      </c>
-      <c r="L46" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -2490,16 +2532,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
         <v>39</v>
       </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F47">
         <v>-1</v>
@@ -2508,16 +2550,16 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" t="s">
         <v>39</v>
       </c>
-      <c r="L47" t="s">
-        <v>40</v>
-      </c>
       <c r="M47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O47">
         <v>-1</v>
@@ -2528,16 +2570,16 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
         <v>43</v>
       </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2546,16 +2588,16 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" t="s">
         <v>43</v>
       </c>
-      <c r="L48" t="s">
-        <v>44</v>
-      </c>
       <c r="M48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O48">
         <v>6</v>
@@ -2566,16 +2608,16 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49">
         <v>20</v>
@@ -2584,16 +2626,16 @@
         <v>3</v>
       </c>
       <c r="K49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" t="s">
         <v>46</v>
       </c>
-      <c r="L49" t="s">
-        <v>47</v>
-      </c>
       <c r="M49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O49">
         <v>20</v>
@@ -2604,16 +2646,16 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50">
         <v>4</v>
@@ -2622,16 +2664,16 @@
         <v>4</v>
       </c>
       <c r="K50" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" t="s">
         <v>48</v>
       </c>
-      <c r="L50" t="s">
-        <v>49</v>
-      </c>
       <c r="M50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O50">
         <v>4</v>
@@ -2642,16 +2684,16 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51">
         <v>100</v>
@@ -2660,16 +2702,16 @@
         <v>5</v>
       </c>
       <c r="K51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L51" t="s">
         <v>50</v>
       </c>
-      <c r="L51" t="s">
-        <v>51</v>
-      </c>
       <c r="M51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O51">
         <v>100</v>
@@ -2680,16 +2722,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
         <v>56</v>
       </c>
-      <c r="C52" t="s">
-        <v>57</v>
-      </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F52">
         <v>-1</v>
@@ -2698,16 +2740,16 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" t="s">
         <v>56</v>
       </c>
-      <c r="L52" t="s">
-        <v>57</v>
-      </c>
       <c r="M52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O52">
         <v>-1</v>
@@ -2718,16 +2760,16 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
         <v>94</v>
       </c>
-      <c r="C53" t="s">
-        <v>95</v>
-      </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -2736,16 +2778,16 @@
         <v>7</v>
       </c>
       <c r="K53" t="s">
+        <v>93</v>
+      </c>
+      <c r="L53" t="s">
         <v>94</v>
       </c>
-      <c r="L53" t="s">
-        <v>95</v>
-      </c>
       <c r="M53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O53">
         <v>10</v>
@@ -2756,16 +2798,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
         <v>96</v>
       </c>
-      <c r="C54" t="s">
-        <v>97</v>
-      </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54">
         <v>30</v>
@@ -2774,16 +2816,16 @@
         <v>8</v>
       </c>
       <c r="K54" t="s">
+        <v>95</v>
+      </c>
+      <c r="L54" t="s">
         <v>96</v>
       </c>
-      <c r="L54" t="s">
-        <v>97</v>
-      </c>
       <c r="M54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O54">
         <v>30</v>
@@ -2794,16 +2836,16 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
         <v>98</v>
       </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55">
         <v>100</v>
@@ -2812,16 +2854,16 @@
         <v>9</v>
       </c>
       <c r="K55" t="s">
+        <v>97</v>
+      </c>
+      <c r="L55" t="s">
         <v>98</v>
       </c>
-      <c r="L55" t="s">
-        <v>99</v>
-      </c>
       <c r="M55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O55">
         <v>100</v>
@@ -2832,16 +2874,16 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
         <v>100</v>
       </c>
-      <c r="C56" t="s">
-        <v>101</v>
-      </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56">
         <v>50</v>
@@ -2850,16 +2892,16 @@
         <v>10</v>
       </c>
       <c r="K56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L56" t="s">
         <v>100</v>
       </c>
-      <c r="L56" t="s">
-        <v>101</v>
-      </c>
       <c r="M56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O56">
         <v>50</v>
@@ -2870,16 +2912,16 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
         <v>102</v>
       </c>
-      <c r="C57" t="s">
-        <v>103</v>
-      </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57">
         <v>50</v>
@@ -2888,16 +2930,16 @@
         <v>11</v>
       </c>
       <c r="K57" t="s">
+        <v>101</v>
+      </c>
+      <c r="L57" t="s">
         <v>102</v>
       </c>
-      <c r="L57" t="s">
-        <v>103</v>
-      </c>
       <c r="M57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O57">
         <v>50</v>
